--- a/Excel Plug-In4/Fluid Capacity Mass.xlsx
+++ b/Excel Plug-In4/Fluid Capacity Mass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Excel Plug-In4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/ASE6002PEK-main/ASE6002PEK-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC68A94-EAE5-4502-ADA6-D5125E2437F3}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65103762-A16A-4C1D-9695-60C35F23A848}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24660" windowHeight="12960" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="container_diameter">Sheet1!$B$4</definedName>
     <definedName name="container_height">Sheet1!$B$3</definedName>
     <definedName name="fluid_density">Sheet1!$B$5</definedName>
-    <definedName name="fluid_mass">Sheet1!$B$6</definedName>
+    <definedName name="fluid_mass">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -528,8 +528,8 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f>B4*B4*B3*3.14/1000</f>
-        <v>3.14</v>
+        <f>(container_height*3.14159*(container_diameter/2)^2)/1000</f>
+        <v>1.767144375</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>

--- a/Excel Plug-In4/Fluid Capacity Mass.xlsx
+++ b/Excel Plug-In4/Fluid Capacity Mass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/ASE6002PEK-main/ASE6002PEK-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Excel Plug-In4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65103762-A16A-4C1D-9695-60C35F23A848}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E004A8B1-3868-46AE-8B7C-C30AC48FD6EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24660" windowHeight="12960" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="container_diameter">Sheet1!$B$4</definedName>
     <definedName name="container_height">Sheet1!$B$3</definedName>
     <definedName name="fluid_density">Sheet1!$B$5</definedName>
-    <definedName name="fluid_mass">Sheet1!#REF!</definedName>
+    <definedName name="fluid_mass">Sheet1!$B$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -158,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,7 +484,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -529,7 +533,7 @@
       </c>
       <c r="B6" s="2">
         <f>(container_height*3.14159*(container_diameter/2)^2)/1000</f>
-        <v>1.767144375</v>
+        <v>0.78539750000000008</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>

--- a/Excel Plug-In4/Fluid Capacity Mass.xlsx
+++ b/Excel Plug-In4/Fluid Capacity Mass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Excel Plug-In4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E004A8B1-3868-46AE-8B7C-C30AC48FD6EE}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22C01C5D-E699-407F-80E6-B0C9BDF6690F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="38700" windowHeight="15345" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
+    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -533,7 +533,7 @@
       </c>
       <c r="B6" s="2">
         <f>(container_height*3.14159*(container_diameter/2)^2)/1000</f>
-        <v>0.78539750000000008</v>
+        <v>1.767144375</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>

--- a/Excel Plug-In4/Fluid Capacity Mass.xlsx
+++ b/Excel Plug-In4/Fluid Capacity Mass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Excel Plug-In4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22C01C5D-E699-407F-80E6-B0C9BDF6690F}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70284FCF-F6FF-4A33-B936-5F1926C0F369}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
   </bookViews>

--- a/Excel Plug-In4/Fluid Capacity Mass.xlsx
+++ b/Excel Plug-In4/Fluid Capacity Mass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Excel Plug-In4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70284FCF-F6FF-4A33-B936-5F1926C0F369}"/>
+  <xr:revisionPtr revIDLastSave="3859" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42D1F0AC-4938-4CB5-8F81-1278575896C0}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
   </bookViews>

--- a/Excel Plug-In4/Fluid Capacity Mass.xlsx
+++ b/Excel Plug-In4/Fluid Capacity Mass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Excel Plug-In4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Excel Plug-In4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3859" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42D1F0AC-4938-4CB5-8F81-1278575896C0}"/>
+  <xr:revisionPtr revIDLastSave="3869" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F53456B7-DDA6-4CB1-B5D2-A3F9A95DE6BA}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
+    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="container_height">Sheet1!$B$3</definedName>
     <definedName name="fluid_density">Sheet1!$B$5</definedName>
     <definedName name="fluid_mass">Sheet1!$B$6</definedName>
+    <definedName name="UNC_Fluid_Fill">Sheet1!$B$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Fluid Capacity</t>
   </si>
@@ -66,6 +67,12 @@
   </si>
   <si>
     <t>kg</t>
+  </si>
+  <si>
+    <t>UNC_Fluid_Fill</t>
+  </si>
+  <si>
+    <t>% fluid fill</t>
   </si>
 </sst>
 </file>
@@ -481,13 +488,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFDEF44-065B-42CA-93FA-BEEED9D4D5AA}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -532,11 +542,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f>(container_height*3.14159*(container_diameter/2)^2)/1000</f>
-        <v>1.767144375</v>
+        <f>(container_height*3.14159*(container_diameter/2)^2)/1000*UNC_Fluid_Fill</f>
+        <v>1.4137155000000001</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Plug-In4/Fluid Capacity Mass.xlsx
+++ b/Excel Plug-In4/Fluid Capacity Mass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Excel Plug-In4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3869" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F53456B7-DDA6-4CB1-B5D2-A3F9A95DE6BA}"/>
+  <xr:revisionPtr revIDLastSave="3882" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73BF7769-75FB-45E1-933D-C4CB25FB4252}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,8 +542,8 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f>(container_height*3.14159*(container_diameter/2)^2)/1000*UNC_Fluid_Fill</f>
-        <v>1.4137155000000001</v>
+        <f>(container_height*3.14*(container_diameter/2)*B5)/1000</f>
+        <v>0.23550000000000001</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>

--- a/Excel Plug-In4/Fluid Capacity Mass.xlsx
+++ b/Excel Plug-In4/Fluid Capacity Mass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Excel Plug-In4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Excel Plug-In4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3882" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73BF7769-75FB-45E1-933D-C4CB25FB4252}"/>
+  <xr:revisionPtr revIDLastSave="4322" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{679164A8-4B94-42F0-B000-F8E1B48CB64E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
+    <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>24.999980000000001</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -543,7 +539,7 @@
       </c>
       <c r="B6" s="2">
         <f>(container_height*3.14*(container_diameter/2)*B5)/1000</f>
-        <v>0.23550000000000001</v>
+        <v>0.5887495290000001</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>

--- a/Excel Plug-In4/Fluid Capacity Mass.xlsx
+++ b/Excel Plug-In4/Fluid Capacity Mass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Excel Plug-In4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4322" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{679164A8-4B94-42F0-B000-F8E1B48CB64E}"/>
+  <xr:revisionPtr revIDLastSave="14726" documentId="8_{272C6EFA-6A4D-4583-8144-6E15F1E4C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59A1F6A1-386E-4696-962C-C83B60B1D2BD}"/>
   <bookViews>
     <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{46E85BB8-B567-4DDA-83E7-4BBB57F9E498}"/>
   </bookViews>
@@ -165,6 +165,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.999980000000001</v>
+        <v>50.000450000000001</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -539,7 +543,7 @@
       </c>
       <c r="B6" s="2">
         <f>(container_height*3.14*(container_diameter/2)*B5)/1000</f>
-        <v>0.5887495290000001</v>
+        <v>1.1775105975000002</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
